--- a/biology/Botanique/Rubus_ulmifolius/Rubus_ulmifolius.xlsx
+++ b/biology/Botanique/Rubus_ulmifolius/Rubus_ulmifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ronce à feuilles d'Orme (Rubus ulmifolius) est une espèce de plantes à fleurs de la famille des rosacées.
 C'est une ronce buissonnante, épineuse. Comme beaucoup de Rubus c'est une espèce polymorphe.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulmifolius: les folioles ressemblent aux feuilles de l'Orme (Ulmus).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus ulmifolius possède des turions arqués, marqué par un petit canal en gouttière sur ses faces. Ses tiges, de couleur glauque, armées d’aiguillons sont recouvertes d'une pellicule poudreuse appelé pruine.
 Les feuilles courbées vers l'extérieur, sont de couleur glauque sur les faces supérieures et blanche duveteuse sur les faces inférieures. Les feuilles sont composées de trois à cinq folioles peu profondément dentées, la feuille terminale est obovale.
@@ -577,7 +593,9 @@
           <t>Propagation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante produit des stolons et a des rameaux en forme d’arches qui peuvent mesurer plus de 3 m d’envergure. Ces rameaux se ramifient de façon exponentielle et multidirectionnelle en se marcottant au fur et à mesure de leur croissance, ce qui permet d'exploiter différents points du sol souvent pauvre dans lequel la plante peut se développer.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Rubus aime les expositions ensoleillées, on le rencontre à l'état naturel dans le pourtour Méditerranéen.
 </t>
@@ -639,7 +659,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rubus ulmifolius var. inermis
 Rubus ulmifolius var. ulmifolius</t>
@@ -670,7 +692,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ronce est utilisée pour recoloniser les milieux arides soumis à l'érosion.
 </t>
